--- a/orders.xlsx
+++ b/orders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1803,19 +1803,6 @@
         <v>139.72</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,38 +473,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1/6/2020</t>
+          <t>1/23/2020</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>East</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Kivell</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Pencil</t>
+          <t>Binder</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>1.99</v>
+        <v>19.99</v>
       </c>
       <c r="G2" t="n">
-        <v>189.05</v>
+        <v>999.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1/23/2020</t>
+          <t>2/9/2020</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -514,28 +514,28 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Kivell</t>
+          <t>Jardine</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Binder</t>
+          <t>Pencil</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F3" t="n">
-        <v>19.99</v>
+        <v>4.99</v>
       </c>
       <c r="G3" t="n">
-        <v>999.5</v>
+        <v>179.64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2/9/2020</t>
+          <t>2/26/2020</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -545,121 +545,121 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jardine</t>
+          <t>Gill</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pencil</t>
+          <t>Pen</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F4" t="n">
-        <v>4.99</v>
+        <v>19.99</v>
       </c>
       <c r="G4" t="n">
-        <v>179.64</v>
+        <v>539.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2/26/2020</t>
+          <t>3/15/2020</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>West</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gill</t>
+          <t>Sorvino</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pen</t>
+          <t>Pencil</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F5" t="n">
-        <v>19.99</v>
+        <v>2.99</v>
       </c>
       <c r="G5" t="n">
-        <v>539.73</v>
+        <v>167.44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/15/2020</t>
+          <t>4/1/2020</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>West</t>
+          <t>East</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sorvino</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Pencil</t>
+          <t>Binder</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>2.99</v>
+        <v>4.99</v>
       </c>
       <c r="G6" t="n">
-        <v>167.44</v>
+        <v>299.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4/1/2020</t>
+          <t>4/18/2020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>East</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Andrews</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Binder</t>
+          <t>Pencil</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F7" t="n">
-        <v>4.99</v>
+        <v>1.99</v>
       </c>
       <c r="G7" t="n">
-        <v>299.4</v>
+        <v>149.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4/18/2020</t>
+          <t>5/5/2020</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Andrews</t>
+          <t>Jardine</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -678,29 +678,29 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F8" t="n">
-        <v>1.99</v>
+        <v>4.99</v>
       </c>
       <c r="G8" t="n">
-        <v>149.25</v>
+        <v>449.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5/5/2020</t>
+          <t>5/22/2020</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>West</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jardine</t>
+          <t>Thompson</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -709,112 +709,112 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="F9" t="n">
-        <v>4.99</v>
+        <v>1.99</v>
       </c>
       <c r="G9" t="n">
-        <v>449.1</v>
+        <v>63.68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5/22/2020</t>
+          <t>6/8/2020</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>West</t>
+          <t>East</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Thompson</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pencil</t>
+          <t>Binder</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F10" t="n">
-        <v>1.99</v>
+        <v>8.99</v>
       </c>
       <c r="G10" t="n">
-        <v>63.68</v>
+        <v>539.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6/8/2020</t>
+          <t>6/25/2020</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>East</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Morgan</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Binder</t>
+          <t>Pencil</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F11" t="n">
-        <v>8.99</v>
+        <v>4.99</v>
       </c>
       <c r="G11" t="n">
-        <v>539.4</v>
+        <v>449.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6/25/2020</t>
+          <t>7/12/2020</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>East</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Morgan</t>
+          <t>Howard</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Pencil</t>
+          <t>Binder</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="F12" t="n">
-        <v>4.99</v>
+        <v>1.99</v>
       </c>
       <c r="G12" t="n">
-        <v>449.1</v>
+        <v>57.71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7/12/2020</t>
+          <t>7/29/2020</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Howard</t>
+          <t>Parent</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -833,19 +833,19 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="F13" t="n">
-        <v>1.99</v>
+        <v>19.99</v>
       </c>
       <c r="G13" t="n">
-        <v>57.71</v>
+        <v>1619.19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7/29/2020</t>
+          <t>8/15/2020</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -855,152 +855,152 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Parent</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Binder</t>
+          <t>Pencil</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="F14" t="n">
-        <v>19.99</v>
+        <v>4.99</v>
       </c>
       <c r="G14" t="n">
-        <v>1619.19</v>
+        <v>174.65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8/15/2020</t>
+          <t>9/1/2020</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>East</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Pencil</t>
+          <t>Desk</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>4.99</v>
+        <v>125</v>
       </c>
       <c r="G15" t="n">
-        <v>174.65</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>9/1/2020</t>
+          <t>9/18/2020</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>East</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Desk</t>
+          <t>Pen Set</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F16" t="n">
-        <v>125</v>
+        <v>15.99</v>
       </c>
       <c r="G16" t="n">
-        <v>250</v>
+        <v>255.84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>9/18/2020</t>
+          <t>10/5/2020</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>East</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Morgan</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pen Set</t>
+          <t>Binder</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F17" t="n">
-        <v>15.99</v>
+        <v>8.99</v>
       </c>
       <c r="G17" t="n">
-        <v>255.84</v>
+        <v>251.72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10/5/2020</t>
+          <t>10/22/2020</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>East</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Morgan</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Binder</t>
+          <t>Pen</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="F18" t="n">
         <v>8.99</v>
       </c>
       <c r="G18" t="n">
-        <v>251.72</v>
+        <v>575.36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10/22/2020</t>
+          <t>11/8/2021</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Parent</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1019,50 +1019,50 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F19" t="n">
-        <v>8.99</v>
+        <v>19.99</v>
       </c>
       <c r="G19" t="n">
-        <v>575.36</v>
+        <v>299.85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>11/8/2020</t>
+          <t>11/25/2020</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>East</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Parent</t>
+          <t>Kivell</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Pen</t>
+          <t>Pen Set</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="F20" t="n">
-        <v>19.99</v>
+        <v>4.99</v>
       </c>
       <c r="G20" t="n">
-        <v>299.85</v>
+        <v>479.04</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>11/25/2020</t>
+          <t>12/12/2020</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1072,90 +1072,90 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Kivell</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Pen Set</t>
+          <t>Pencil</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="F21" t="n">
-        <v>4.99</v>
+        <v>1.29</v>
       </c>
       <c r="G21" t="n">
-        <v>479.04</v>
+        <v>86.43000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12/12/2020</t>
+          <t>12/29/2020</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>East</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Parent</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Pencil</t>
+          <t>Pen Set</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F22" t="n">
-        <v>1.29</v>
+        <v>15.99</v>
       </c>
       <c r="G22" t="n">
-        <v>86.43000000000001</v>
+        <v>1183.26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>12/29/2020</t>
+          <t>1/15/2021</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>East</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Parent</t>
+          <t>Gill</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Pen Set</t>
+          <t>Binder</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F23" t="n">
-        <v>15.99</v>
+        <v>8.99</v>
       </c>
       <c r="G23" t="n">
-        <v>1183.26</v>
+        <v>413.54</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1/15/2021</t>
+          <t>2/1/2021</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Gill</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1174,29 +1174,29 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="F24" t="n">
-        <v>8.99</v>
+        <v>15</v>
       </c>
       <c r="G24" t="n">
-        <v>413.54</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2/1/2021</t>
+          <t>2/18/2021</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>East</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1205,29 +1205,29 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>15</v>
+        <v>4.99</v>
       </c>
       <c r="G25" t="n">
-        <v>1305</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2/18/2021</t>
+          <t>3/7/2021</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>East</t>
+          <t>West</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Sorvino</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1236,50 +1236,50 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>4.99</v>
+        <v>19.99</v>
       </c>
       <c r="G26" t="n">
-        <v>19.96</v>
+        <v>139.93</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3/7/2021</t>
+          <t>3/24/2021</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>West</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Sorvino</t>
+          <t>Jardine</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Binder</t>
+          <t>Pen Set</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="F27" t="n">
-        <v>19.99</v>
+        <v>4.99</v>
       </c>
       <c r="G27" t="n">
-        <v>139.93</v>
+        <v>249.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3/24/2021</t>
+          <t>4/10/2021</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1289,90 +1289,90 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Jardine</t>
+          <t>Andrews</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Pen Set</t>
+          <t>Pencil</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F28" t="n">
-        <v>4.99</v>
+        <v>1.99</v>
       </c>
       <c r="G28" t="n">
-        <v>249.5</v>
+        <v>131.34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4/10/2021</t>
+          <t>4/27/2021</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>East</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Andrews</t>
+          <t>Howard</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Pencil</t>
+          <t>Pen</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="F29" t="n">
-        <v>1.99</v>
+        <v>4.99</v>
       </c>
       <c r="G29" t="n">
-        <v>131.34</v>
+        <v>479.04</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4/27/2021</t>
+          <t>5/14/2021</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>East</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Howard</t>
+          <t>Gill</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Pen</t>
+          <t>Pencil</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="F30" t="n">
-        <v>4.99</v>
+        <v>1.29</v>
       </c>
       <c r="G30" t="n">
-        <v>479.04</v>
+        <v>68.37</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5/14/2021</t>
+          <t>5/31/2021</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1387,23 +1387,23 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Pencil</t>
+          <t>Binder</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F31" t="n">
-        <v>1.29</v>
+        <v>8.99</v>
       </c>
       <c r="G31" t="n">
-        <v>68.37</v>
+        <v>719.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5/31/2021</t>
+          <t>6/17/2021</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1413,69 +1413,69 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Gill</t>
+          <t>Kivell</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Binder</t>
+          <t>Desk</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="F32" t="n">
-        <v>8.99</v>
+        <v>125</v>
       </c>
       <c r="G32" t="n">
-        <v>719.2</v>
+        <v>625</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6/17/2021</t>
+          <t>7/4/2021</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>East</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Kivell</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Desk</t>
+          <t>Pen Set</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="F33" t="n">
-        <v>125</v>
+        <v>4.99</v>
       </c>
       <c r="G33" t="n">
-        <v>625</v>
+        <v>309.38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7/4/2021</t>
+          <t>7/21/2021</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>East</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Morgan</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1484,19 +1484,19 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F34" t="n">
-        <v>4.99</v>
+        <v>12.49</v>
       </c>
       <c r="G34" t="n">
-        <v>309.38</v>
+        <v>686.95</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>7/21/2021</t>
+          <t>8/7/2021</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Morgan</t>
+          <t>Kivell</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1515,112 +1515,112 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F35" t="n">
-        <v>12.49</v>
+        <v>23.95</v>
       </c>
       <c r="G35" t="n">
-        <v>686.95</v>
+        <v>1005.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>8/7/2021</t>
+          <t>8/24/2021</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>West</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Kivell</t>
+          <t>Sorvino</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Pen Set</t>
+          <t>Desk</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="F36" t="n">
-        <v>23.95</v>
+        <v>275</v>
       </c>
       <c r="G36" t="n">
-        <v>1005.9</v>
+        <v>825</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>8/24/2021</t>
+          <t>9/10/2021</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>West</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sorvino</t>
+          <t>Gill</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Desk</t>
+          <t>Pencil</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>275</v>
+        <v>1.29</v>
       </c>
       <c r="G37" t="n">
-        <v>825</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>9/10/2021</t>
+          <t>9/27/2021</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>West</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Gill</t>
+          <t>Sorvino</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Pencil</t>
+          <t>Pen</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="F38" t="n">
-        <v>1.29</v>
+        <v>1.99</v>
       </c>
       <c r="G38" t="n">
-        <v>9.029999999999999</v>
+        <v>151.24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>9/27/2021</t>
+          <t>10/14/2021</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1630,59 +1630,59 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Sorvino</t>
+          <t>Thompson</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Pen</t>
+          <t>Binder</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="F39" t="n">
-        <v>1.99</v>
+        <v>19.99</v>
       </c>
       <c r="G39" t="n">
-        <v>151.24</v>
+        <v>1139.43</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10/14/2021</t>
+          <t>10/31/2021</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>West</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Thompson</t>
+          <t>Andrews</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Binder</t>
+          <t>Pencil</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F40" t="n">
-        <v>19.99</v>
+        <v>1.29</v>
       </c>
       <c r="G40" t="n">
-        <v>1139.43</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>10/31/2021</t>
+          <t>11/17/2021</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1692,28 +1692,28 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Andrews</t>
+          <t>Jardine</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Pencil</t>
+          <t>Binder</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F41" t="n">
-        <v>1.29</v>
+        <v>4.99</v>
       </c>
       <c r="G41" t="n">
-        <v>18.06</v>
+        <v>54.89</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>11/17/2021</t>
+          <t>12/4/2021</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1732,75 +1732,13 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="F42" t="n">
-        <v>4.99</v>
+        <v>19.99</v>
       </c>
       <c r="G42" t="n">
-        <v>54.89</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>12/4/2021</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Central</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Jardine</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Binder</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>94</v>
-      </c>
-      <c r="F43" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="G43" t="n">
         <v>1879.06</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>12/21/2021</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Central</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Andrews</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Binder</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>28</v>
-      </c>
-      <c r="F44" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="G44" t="n">
-        <v>139.72</v>
       </c>
     </row>
   </sheetData>
